--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="14.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="14.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="14.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18321609129527303</v>
+        <v>0.23819312193243655</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.21196387908914949</v>
+        <v>0.27250757174013873</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.046472078083947141</v>
+        <v>-0.04446289177310081</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0074860329045575054</v>
+        <v>0.026866372944277718</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.010996474521198304</v>
+        <v>0.013699165364939371</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0024311991182083921</v>
+        <v>0.0077164346514254616</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0002547134185035177</v>
+        <v>0.0017974243087641941</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0023549857190703527</v>
+        <v>-0.00035917559872720691</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0004272903180435883</v>
+        <v>0.029057119910123469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.40444800160631905</v>
+        <v>0.47530117769821245</v>
       </c>
       <c r="C4" s="0">
-        <v>0.20196210116695348</v>
+        <v>0.013819892787387423</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00061085948837601872</v>
+        <v>0.0010814035564391603</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00054632614858378013</v>
+        <v>-0.0017173596431209128</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-9.8606100209633788e-05</v>
+        <v>-0.0031942376652086121</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0046803499315283114</v>
+        <v>0.17924497381788901</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0072026993622759591</v>
+        <v>0.011165551028892251</v>
       </c>
       <c r="K4" s="0">
-        <v>0.002439143404437738</v>
+        <v>0.0023933820757954249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31458402491527715</v>
+        <v>0.45333859580121239</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.10789205574022649</v>
+        <v>0.025413238481473435</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0052261006647490475</v>
+        <v>0.0098231931439007394</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00040588454034574701</v>
+        <v>-0.077342023295886964</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0023266090782720198</v>
+        <v>-0.010602110093451271</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0028461483487229153</v>
+        <v>-0.0049827694136908461</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.006847885836859826</v>
+        <v>0.017517360079840501</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.014071222253954685</v>
+        <v>0.01821052920081434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.33083104933639207</v>
+        <v>0.048661102019954994</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0076851335168974452</v>
+        <v>-0.33703266823001932</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00046503719376231832</v>
+        <v>0.0025689436485147382</v>
       </c>
       <c r="F6" s="0">
-        <v>0.013477763290360484</v>
+        <v>-0.0022626448498755886</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0060253335016002248</v>
+        <v>-0.0047813974867500367</v>
       </c>
       <c r="I6" s="0">
-        <v>0.011561095214552796</v>
+        <v>-0.064992962437577725</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.007597071262263444</v>
+        <v>0.0018232355744505768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.27012862205649396</v>
+        <v>0.096311646940341472</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.063232909545828303</v>
+        <v>0.20861279869619584</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.021236832283415916</v>
+        <v>-0.014933617941889361</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.034704489648582332</v>
+        <v>-0.11620828574030728</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00028828615968029482</v>
+        <v>0.0049454368109285657</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00038445315991100971</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0045354679007162113</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.062785807673420679</v>
+        <v>-0.034765786904541268</v>
       </c>
     </row>
     <row r="8">
